--- a/src/TestData.xlsx
+++ b/src/TestData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
   <si>
     <t>First Name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Confirm Password</t>
-  </si>
-  <si>
     <t>Subject</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Birth Date</t>
   </si>
   <si>
-    <t>Salary</t>
-  </si>
-  <si>
     <t>Section</t>
   </si>
   <si>
@@ -95,6 +89,282 @@
   </si>
   <si>
     <t>643 main st</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Gietz</t>
+  </si>
+  <si>
+    <t>Shelley</t>
+  </si>
+  <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Whalen</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Neena</t>
+  </si>
+  <si>
+    <t>Kochhar</t>
+  </si>
+  <si>
+    <t>Lex</t>
+  </si>
+  <si>
+    <t>De Haan</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Faviet</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Ismael</t>
+  </si>
+  <si>
+    <t>Sciarra</t>
+  </si>
+  <si>
+    <t>Jose Manuel</t>
+  </si>
+  <si>
+    <t>Urman</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Popp</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>Greenberg</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Mavris</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Hunold</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Valli</t>
+  </si>
+  <si>
+    <t>Pataballa</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Lorentz</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Hartstein</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Fay</t>
+  </si>
+  <si>
+    <t>Hermann</t>
+  </si>
+  <si>
+    <t>Baer</t>
+  </si>
+  <si>
+    <t>Khoo</t>
+  </si>
+  <si>
+    <t>Shelli</t>
+  </si>
+  <si>
+    <t>Baida</t>
+  </si>
+  <si>
+    <t>Sigal</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Himuro</t>
+  </si>
+  <si>
+    <t>Karen</t>
+  </si>
+  <si>
+    <t>Colmenares</t>
+  </si>
+  <si>
+    <t>Den</t>
+  </si>
+  <si>
+    <t>Raphaely</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Errazuriz</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
+    <t>Cambrault</t>
+  </si>
+  <si>
+    <t>Eleni</t>
+  </si>
+  <si>
+    <t>Zlotkey</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Bernstein</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Olsen</t>
+  </si>
+  <si>
+    <t>Nanette</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Tuvault</t>
+  </si>
+  <si>
+    <t>Janette</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Sully</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>McEwen</t>
+  </si>
+  <si>
+    <t>Lindsey</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Louise</t>
+  </si>
+  <si>
+    <t>Doran</t>
+  </si>
+  <si>
+    <t>Sarath</t>
+  </si>
+  <si>
+    <t>Sewall</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Vishney</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>Mattea</t>
+  </si>
+  <si>
+    <t>Marvins</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Sundar</t>
+  </si>
+  <si>
+    <t>Ande</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>Banda</t>
   </si>
 </sst>
 </file>
@@ -400,12 +670,8 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -418,18 +684,16 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="4">
         <v>40949.0</v>
@@ -437,40 +701,34 @@
       <c r="E2" s="3">
         <v>123.0</v>
       </c>
-      <c r="F2" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H2" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="3">
-        <v>4.939204958E9</v>
-      </c>
-      <c r="I2" s="4">
-        <v>33604.0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>100000.0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>40305.0</v>
@@ -478,37 +736,31 @@
       <c r="E3" s="3">
         <v>1234.0</v>
       </c>
-      <c r="F3" s="3">
-        <v>1234.0</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
         <v>4.0820495E7</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="4">
         <v>34006.0</v>
       </c>
-      <c r="J3" s="3">
-        <v>170000.0</v>
-      </c>
-      <c r="K3" s="3">
+      <c r="I3" s="3">
         <v>3.0</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>41886.0</v>
@@ -516,26 +768,1668 @@
       <c r="E4" s="3">
         <v>124.0</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H6" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E7" s="3">
         <v>124.0</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3">
         <v>4.3292303E7</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H7" s="4">
         <v>34428.0</v>
       </c>
-      <c r="J4" s="3">
-        <v>150000.0</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="I7" s="3">
         <v>4.0</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>27</v>
+      <c r="J7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H8" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H9" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H10" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H11" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H12" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H13" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H15" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E16" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I16" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H17" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H18" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H19" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I19" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H21" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H22" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H23" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H24" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H25" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H26" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H28" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H29" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H30" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E31" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H31" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H32" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H33" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H34" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H35" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H36" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I36" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E37" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H37" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E38" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H38" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H39" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E40" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H40" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H42" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H43" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H44" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H45" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G46" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H46" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H47" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H48" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H49" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H50" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I50" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="4">
+        <v>40949.0</v>
+      </c>
+      <c r="E51" s="3">
+        <v>123.0</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="3">
+        <v>4.939204958E9</v>
+      </c>
+      <c r="H51" s="4">
+        <v>33604.0</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4">
+        <v>40305.0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1234.0</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="3">
+        <v>4.0820495E7</v>
+      </c>
+      <c r="H52" s="4">
+        <v>34006.0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E53" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H53" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I53" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="4">
+        <v>41886.0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>124.0</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4.3292303E7</v>
+      </c>
+      <c r="H54" s="4">
+        <v>34428.0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
